--- a/biology/Botanique/Géranium_livide/Géranium_livide.xlsx
+++ b/biology/Botanique/Géranium_livide/Géranium_livide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_livide</t>
+          <t>Géranium_livide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geranium phaeum
-Le Géranium livide ou Géranium brun (Geranium phaeum), en anglais Dusky Crane's-bill, en allemand Braune Storchschnabel, en italien Geranio stellato est une plante de la famille des Géraniacées[1].
+Le Géranium livide ou Géranium brun (Geranium phaeum), en anglais Dusky Crane's-bill, en allemand Braune Storchschnabel, en italien Geranio stellato est une plante de la famille des Géraniacées.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_livide</t>
+          <t>Géranium_livide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante vivace, de 20 à 70 cm de hauteur, à fleurs de 14 à 16 mm allant du mauve au brun foncé[2]. Les feuilles sont polygonales profondément découpées[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace, de 20 à 70 cm de hauteur, à fleurs de 14 à 16 mm allant du mauve au brun foncé. Les feuilles sont polygonales profondément découpées.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_livide</t>
+          <t>Géranium_livide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Organes reproducteurs
 Couleur dominante des fleurs : brun
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_livide</t>
+          <t>Géranium_livide</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +597,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geranium phaeum affectionne les prairies humides et le bord des bois[3] à des altitudes de 300 à 2 400 m.
-C'est une plante européenne, présente en particulier en Autriche, Hongrie, Moldavie, Ukraine, Allemagne, Pologne, Slovaquie, Suisse, Roumanie, Bulgarie, Albanie, nord de l'Italie, Espagne et France[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geranium phaeum affectionne les prairies humides et le bord des bois à des altitudes de 300 à 2 400 m.
+C'est une plante européenne, présente en particulier en Autriche, Hongrie, Moldavie, Ukraine, Allemagne, Pologne, Slovaquie, Suisse, Roumanie, Bulgarie, Albanie, nord de l'Italie, Espagne et France.
 </t>
         </is>
       </c>
